--- a/v2/rgblab.xlsx
+++ b/v2/rgblab.xlsx
@@ -379,102 +379,102 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D2">
-        <v>53.240788867616104</v>
+        <v>29.784663655714184</v>
       </c>
       <c r="E2">
-        <v>80.092494286414734</v>
+        <v>58.927911801228497</v>
       </c>
       <c r="F2">
-        <v>67.20319139735453</v>
+        <v>-36.487081171480732</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>255</v>
       </c>
-      <c r="B3">
-        <v>180</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>78.407834534333347</v>
+        <v>32.297009439844494</v>
       </c>
       <c r="E3">
-        <v>16.10705546925556</v>
+        <v>79.187517397197226</v>
       </c>
       <c r="F3">
-        <v>81.251637887376731</v>
+        <v>-107.86016288933186</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>89.63118412435864</v>
+        <v>46.227430171917774</v>
       </c>
       <c r="E4">
-        <v>-69.974970812175854</v>
+        <v>-51.698494452473625</v>
       </c>
       <c r="F4">
-        <v>85.487179829574487</v>
+        <v>49.896839611104149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="B5">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C5">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>87.927437986090155</v>
+        <v>97.139263431696349</v>
       </c>
       <c r="E5">
-        <v>-43.283008300463663</v>
+        <v>-21.553728492530066</v>
       </c>
       <c r="F5">
-        <v>-18.917274882325618</v>
+        <v>94.477963319459832</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="B6">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="C6">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="D6">
-        <v>56.079217439923198</v>
+        <v>82.484871067825324</v>
       </c>
       <c r="E6">
-        <v>15.671151646919013</v>
+        <v>17.53855336966803</v>
       </c>
       <c r="F6">
-        <v>-68.712534980955397</v>
+        <v>29.45464984614874</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,16 +485,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>58.748139632008716</v>
+        <v>53.240788867616104</v>
       </c>
       <c r="E7">
-        <v>94.386259751097484</v>
+        <v>80.092494286414734</v>
       </c>
       <c r="F7">
-        <v>-47.128346560800139</v>
+        <v>67.20319139735453</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -502,19 +502,19 @@
         <v>255</v>
       </c>
       <c r="B8">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>53.240788867616104</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>80.092494286414734</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>67.20319139735453</v>
       </c>
     </row>
   </sheetData>

--- a/v2/rgblab.xlsx
+++ b/v2/rgblab.xlsx
@@ -359,16 +359,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>53.585013452169022</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -379,22 +379,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>29.784663655714184</v>
+        <v>19.453894549302518</v>
       </c>
       <c r="E2">
-        <v>58.927911801228497</v>
+        <v>44.726077651902841</v>
       </c>
       <c r="F2">
-        <v>-36.487081171480732</v>
+        <v>-22.042905540037182</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -402,19 +402,19 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D3">
-        <v>32.297009439844494</v>
+        <v>42.290701884164996</v>
       </c>
       <c r="E3">
-        <v>79.187517397197226</v>
+        <v>41.31476307866788</v>
       </c>
       <c r="F3">
-        <v>-107.86016288933186</v>
+        <v>-83.398685764479751</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -422,19 +422,19 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>46.227430171917774</v>
+        <v>55.403475712623731</v>
       </c>
       <c r="E4">
-        <v>-51.698494452473625</v>
+        <v>-56.328173879348576</v>
       </c>
       <c r="F4">
-        <v>49.896839611104149</v>
+        <v>44.306292693830699</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -442,39 +442,39 @@
         <v>255</v>
       </c>
       <c r="B5">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>97.139263431696349</v>
+        <v>96.103284087075764</v>
       </c>
       <c r="E5">
-        <v>-21.553728492530066</v>
+        <v>-19.650215533887405</v>
       </c>
       <c r="F5">
-        <v>94.477963319459832</v>
+        <v>93.721096841030899</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B6">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="C6">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>82.484871067825324</v>
+        <v>68.242750803252676</v>
       </c>
       <c r="E6">
-        <v>17.53855336966803</v>
+        <v>28.232703032031846</v>
       </c>
       <c r="F6">
-        <v>29.45464984614874</v>
+        <v>73.659648978326516</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -502,19 +502,19 @@
         <v>255</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D8">
-        <v>53.240788867616104</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>80.092494286414734</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>67.20319139735453</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
